--- a/doc/투표구 관할구역.xlsx
+++ b/doc/투표구 관할구역.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>투표소명</t>
+          <t>투표구명</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
